--- a/01_Python/12_Mic_Forms/categorized_training_needs_with_courses.xlsx
+++ b/01_Python/12_Mic_Forms/categorized_training_needs_with_courses.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BR3"/>
+  <dimension ref="A1:BS3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -788,6 +788,11 @@
           <t>Recommended Course</t>
         </is>
       </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>Paid Course</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -962,6 +967,11 @@
           <t>LinkedIn Learning: "Power BI Data Methods"</t>
         </is>
       </c>
+      <c r="BS2" t="inlineStr">
+        <is>
+          <t>Udemy: "Advanced Microsoft Power BI"</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -1128,12 +1138,17 @@
       <c r="BP3" t="inlineStr"/>
       <c r="BQ3" t="inlineStr">
         <is>
-          <t>Medium Training</t>
+          <t>Intermediate Training</t>
         </is>
       </c>
       <c r="BR3" t="inlineStr">
         <is>
           <t>LinkedIn Learning: "Advanced Power BI"</t>
+        </is>
+      </c>
+      <c r="BS3" t="inlineStr">
+        <is>
+          <t>Udemy: "Microsoft Power BI - Data Modeling and DAX Formulas"</t>
         </is>
       </c>
     </row>
